--- a/Test/Thermal/Thermal test final.xlsx
+++ b/Test/Thermal/Thermal test final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolai Fransen\Documents\GitHub\Semester-Project-PED1\Test\Thermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\estef\Documents\TFG\Semester-Project-PED1\Test\Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FB04EDAF-AC82-47C2-A7B1-E759AB1EB761}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F2DD717B-2645-45A2-9CE6-42E153F350D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,8 +129,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="God" xfId="1" builtinId="26"/>
-    <cellStyle name="Kontrollér celle" xfId="2" builtinId="23"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -149,7 +149,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -740,7 +740,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -775,7 +775,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1408685999"/>
@@ -853,7 +853,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -887,7 +887,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407586863"/>
@@ -926,7 +926,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -963,7 +963,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -977,7 +977,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1026,86 +1026,101 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$34</c:f>
+              <c:f>Sheet1!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1113,86 +1128,101 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$34</c:f>
+              <c:f>Sheet1!$E$4:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>47.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>57.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>62.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>66.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>70.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>74.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>76.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>78.8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
@@ -1209,7 +1239,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Heatsink</c:v>
+            <c:v>Heat sink</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1237,86 +1267,101 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$34</c:f>
+              <c:f>Sheet1!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1324,86 +1369,101 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$34</c:f>
+              <c:f>Sheet1!$F$4:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>46.3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>52.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>56.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>60.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>64.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>66.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>70.7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>72.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>74.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>74.8</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>76.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>76.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>77.7</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>78.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>78.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>79.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>79.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
@@ -1431,6 +1491,7 @@
         <c:axId val="1410976367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1499,7 +1560,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1537,7 +1598,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1524423039"/>
@@ -1627,7 +1688,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1665,7 +1726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1410976367"/>
@@ -1707,7 +1768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1744,7 +1805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2876,10 +2937,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3172,13 +3233,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3193,8 +3254,8 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -3215,11 +3276,17 @@
       <c r="D4">
         <v>18.7</v>
       </c>
+      <c r="E4">
+        <v>18.2</v>
+      </c>
+      <c r="F4">
+        <v>18.2</v>
+      </c>
       <c r="G4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3229,11 +3296,18 @@
       <c r="D5">
         <v>32.799999999999997</v>
       </c>
+      <c r="E5">
+        <f>C5-G5</f>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
       <c r="G5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -3243,11 +3317,19 @@
       <c r="D6">
         <v>44.3</v>
       </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E8" si="0">C6-G6</f>
+        <v>28.299999999999997</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F8" si="1">D6-G6</f>
+        <v>24.299999999999997</v>
+      </c>
       <c r="G6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3257,11 +3339,19 @@
       <c r="D7">
         <v>51.9</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>35.9</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>31.9</v>
+      </c>
       <c r="G7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>8</v>
       </c>
@@ -3271,11 +3361,19 @@
       <c r="D8">
         <v>60.3</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>42.8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>40.299999999999997</v>
+      </c>
       <c r="G8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>10</v>
       </c>
@@ -3297,7 +3395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>12</v>
       </c>
@@ -3319,7 +3417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>14</v>
       </c>
@@ -3330,18 +3428,18 @@
         <v>76.099999999999994</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E34" si="0">C11-G11</f>
+        <f t="shared" ref="E11:E34" si="2">C11-G11</f>
         <v>57.599999999999994</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F34" si="1">D11-G11</f>
+        <f t="shared" ref="F11:F34" si="3">D11-G11</f>
         <v>56.099999999999994</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>16</v>
       </c>
@@ -3352,18 +3450,18 @@
         <v>80.8</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>62.3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60.8</v>
       </c>
       <c r="G12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>18</v>
       </c>
@@ -3374,18 +3472,18 @@
         <v>84.1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66.5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64.099999999999994</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>20</v>
       </c>
@@ -3396,18 +3494,18 @@
         <v>86.8</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70.2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66.8</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>22</v>
       </c>
@@ -3418,18 +3516,18 @@
         <v>90</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74.2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>24</v>
       </c>
@@ -3440,18 +3538,18 @@
         <v>90.7</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>76.599999999999994</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70.7</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>26</v>
       </c>
@@ -3462,18 +3560,18 @@
         <v>92.6</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78.8</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72.599999999999994</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>28</v>
       </c>
@@ -3484,18 +3582,18 @@
         <v>94.1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74.099999999999994</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>30</v>
       </c>
@@ -3506,18 +3604,18 @@
         <v>94.8</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74.8</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>32</v>
       </c>
@@ -3528,18 +3626,18 @@
         <v>96.6</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76.599999999999994</v>
       </c>
       <c r="G20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>34</v>
       </c>
@@ -3550,18 +3648,18 @@
         <v>96.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76.599999999999994</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>36</v>
       </c>
@@ -3572,18 +3670,18 @@
         <v>97.7</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77.7</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>38</v>
       </c>
@@ -3594,18 +3692,18 @@
         <v>98.4</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78.400000000000006</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>40</v>
       </c>
@@ -3616,18 +3714,18 @@
         <v>98.9</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78.900000000000006</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>42</v>
       </c>
@@ -3638,18 +3736,18 @@
         <v>99.6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.599999999999994</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>44</v>
       </c>
@@ -3660,18 +3758,18 @@
         <v>99.6</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.599999999999994</v>
       </c>
       <c r="G26">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>46</v>
       </c>
@@ -3682,18 +3780,18 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="G27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>48</v>
       </c>
@@ -3704,18 +3802,18 @@
         <v>101</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="G28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>50</v>
       </c>
@@ -3726,18 +3824,18 @@
         <v>101</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="G29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>52</v>
       </c>
@@ -3748,18 +3846,18 @@
         <v>101</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="G30">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>54</v>
       </c>
@@ -3770,18 +3868,18 @@
         <v>101</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="G31">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>56</v>
       </c>
@@ -3792,18 +3890,18 @@
         <v>101</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="G32">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>58</v>
       </c>
@@ -3814,18 +3912,18 @@
         <v>101</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="G33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>60</v>
       </c>
@@ -3836,11 +3934,11 @@
         <v>101</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="G34">
